--- a/data/outputs/management_elsevier/83.xlsx
+++ b/data/outputs/management_elsevier/83.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS109"/>
+  <dimension ref="A1:BU109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84942891561</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2620</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84942853106</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>3269</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1385,12 @@
           <t>2-s2.0-84942905206</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3723</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1582,6 +1610,12 @@
           <t>2-s2.0-84943249608</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>3799</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1789,6 +1823,12 @@
           <t>2-s2.0-84943236752</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2008,6 +2048,12 @@
           <t>2-s2.0-84943257754</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2967</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2217,6 +2263,12 @@
           <t>2-s2.0-84943414498</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2438,6 +2490,12 @@
           <t>2-s2.0-84943426102</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3158</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84944078092</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2885</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2870,6 +2934,12 @@
           <t>2-s2.0-84944200422</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2460</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3079,6 +3149,12 @@
           <t>2-s2.0-84944906062</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2148</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3292,6 +3368,12 @@
           <t>2-s2.0-84944895313</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1518</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3504,6 +3586,12 @@
         <is>
           <t>2-s2.0-84946576274</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>2157</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -3706,6 +3794,12 @@
           <t>2-s2.0-84947735341</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>881</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3929,6 +4023,12 @@
           <t>2-s2.0-84942870337</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1692</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4142,6 +4242,12 @@
           <t>2-s2.0-84943272130</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2642</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4355,6 +4461,12 @@
           <t>2-s2.0-84943311533</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>7253</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4576,6 +4688,12 @@
           <t>2-s2.0-84943763524</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>5943</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4907,12 @@
           <t>2-s2.0-84947724101</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2376</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5002,6 +5126,12 @@
           <t>2-s2.0-84947784293</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2135</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5213,6 +5343,12 @@
           <t>2-s2.0-84936866533</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1701</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5420,6 +5556,12 @@
           <t>2-s2.0-84939216541</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1532</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5637,6 +5779,12 @@
           <t>2-s2.0-84938912165</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2256</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5842,6 +5990,12 @@
           <t>2-s2.0-84939452082</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1766</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6049,6 +6203,12 @@
           <t>2-s2.0-84939419224</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4175</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6258,6 +6418,12 @@
           <t>2-s2.0-84940035407</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2622</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6465,6 +6631,12 @@
           <t>2-s2.0-84940031462</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1532</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6678,6 +6850,12 @@
           <t>2-s2.0-84940050772</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>2377</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6895,6 +7073,12 @@
           <t>2-s2.0-84940378073</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3450</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7108,6 +7292,12 @@
           <t>2-s2.0-84940535003</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2036</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7333,6 +7523,12 @@
           <t>2-s2.0-84940884508</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2785</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7546,6 +7742,12 @@
           <t>2-s2.0-84942368708</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2245</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7765,6 +7967,12 @@
           <t>2-s2.0-84938152211</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>5735</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7986,6 +8194,12 @@
           <t>2-s2.0-84938221510</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>7583</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8191,6 +8405,12 @@
           <t>2-s2.0-84938584318</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2183</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8396,6 +8616,12 @@
           <t>2-s2.0-84939432529</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>4462</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8601,6 +8827,12 @@
           <t>2-s2.0-84928116251</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>4747</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8814,6 +9046,12 @@
           <t>2-s2.0-84928154844</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1459</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9029,6 +9267,12 @@
           <t>2-s2.0-84928162826</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1299</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9244,6 +9488,12 @@
           <t>2-s2.0-84928558275</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1448</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9465,6 +9715,12 @@
           <t>2-s2.0-84928540804</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>5374</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9674,6 +9930,12 @@
           <t>2-s2.0-84946192693</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>6622</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9891,6 +10153,12 @@
           <t>2-s2.0-84929008526</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>2401</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10112,6 +10380,12 @@
           <t>2-s2.0-84930632833</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1805</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10319,6 +10593,12 @@
           <t>2-s2.0-84930670788</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10532,6 +10812,12 @@
           <t>2-s2.0-84930941603</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>5429</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10741,6 +11027,12 @@
           <t>2-s2.0-84936765536</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>5420</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10954,6 +11246,12 @@
           <t>2-s2.0-84934905667</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2752</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11175,6 +11473,12 @@
           <t>2-s2.0-84933049987</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>4188</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11392,6 +11696,12 @@
           <t>2-s2.0-84933047087</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1257</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11597,6 +11907,12 @@
           <t>2-s2.0-84934278632</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>3278</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11810,6 +12126,12 @@
           <t>2-s2.0-84928580669</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2903</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12029,6 +12351,12 @@
           <t>2-s2.0-84928575341</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>5479</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12244,6 +12572,12 @@
           <t>2-s2.0-84929337282</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>10275</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12459,6 +12793,12 @@
           <t>2-s2.0-84930619875</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2727</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12664,6 +13004,12 @@
           <t>2-s2.0-84930675300</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>2775</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12881,6 +13227,12 @@
           <t>2-s2.0-84922532535</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2938</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13098,6 +13450,12 @@
           <t>2-s2.0-84923283032</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>9122</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13319,6 +13677,12 @@
           <t>2-s2.0-84923336968</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13530,6 +13894,12 @@
           <t>2-s2.0-84923564622</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3012</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13747,6 +14117,12 @@
           <t>2-s2.0-84923535356</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1953</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13968,6 +14344,12 @@
           <t>2-s2.0-84923652796</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>4279</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14173,6 +14555,12 @@
           <t>2-s2.0-84923684210</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2631</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14394,6 +14782,12 @@
           <t>2-s2.0-84923667278</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>4394</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14607,6 +15001,12 @@
           <t>2-s2.0-84923935573</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>3454</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14822,6 +15222,12 @@
           <t>2-s2.0-84925108775</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>3575</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15043,6 +15449,12 @@
           <t>2-s2.0-84925444476</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>4796</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15250,6 +15662,12 @@
           <t>2-s2.0-84925794247</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>8113</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15467,6 +15885,12 @@
           <t>2-s2.0-84961383495</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1482</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15672,6 +16096,12 @@
           <t>2-s2.0-84926335705</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>2364</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15881,6 +16311,12 @@
           <t>2-s2.0-84926283508</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1566</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16082,6 +16518,12 @@
           <t>2-s2.0-84926613321</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>2801</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16303,6 +16745,12 @@
           <t>2-s2.0-84927720436</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>6482</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16510,6 +16958,12 @@
           <t>2-s2.0-84923607748</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>6685</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16717,6 +17171,12 @@
           <t>2-s2.0-84924914601</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>5892</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16940,6 +17400,12 @@
           <t>2-s2.0-84924960094</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1830</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17155,6 +17621,12 @@
           <t>2-s2.0-84961291791</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>3584</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17376,6 +17848,12 @@
           <t>2-s2.0-84926664035</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>4180</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17601,6 +18079,12 @@
           <t>2-s2.0-84928034101</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2656</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17818,6 +18302,12 @@
           <t>2-s2.0-84916618625</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1139</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18035,6 +18525,12 @@
           <t>2-s2.0-84920155335</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>5953</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18244,6 +18740,12 @@
           <t>2-s2.0-84920901687</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>1852</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18459,6 +18961,12 @@
           <t>2-s2.0-84920911988</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>2665</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18664,6 +19172,12 @@
           <t>2-s2.0-84920971121</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>5136</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18883,6 +19397,12 @@
           <t>2-s2.0-84920999424</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1652</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19096,6 +19616,12 @@
           <t>2-s2.0-84920982631</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>4019</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19315,6 +19841,12 @@
           <t>2-s2.0-84920984221</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2038</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19526,6 +20058,12 @@
           <t>2-s2.0-84920937150</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1331</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19739,6 +20277,12 @@
           <t>2-s2.0-84921367480</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>7026</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19952,6 +20496,12 @@
           <t>2-s2.0-84921377951</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>3939</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20165,6 +20715,12 @@
           <t>2-s2.0-84921769515</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>6458</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20386,6 +20942,12 @@
           <t>2-s2.0-84917742698</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>4987</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20595,6 +21157,12 @@
           <t>2-s2.0-84920152091</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2066</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20816,6 +21384,12 @@
           <t>2-s2.0-84920911128</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>2088</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21025,6 +21599,12 @@
           <t>2-s2.0-84921497228</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1169</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21230,6 +21810,12 @@
           <t>2-s2.0-84910029440</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>3892</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21435,6 +22021,12 @@
           <t>2-s2.0-84910038961</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>4698</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21640,6 +22232,12 @@
           <t>2-s2.0-84908701574</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>8258</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21853,6 +22451,12 @@
           <t>2-s2.0-84910011719</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>2412</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22068,6 +22672,12 @@
           <t>2-s2.0-84910008025</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>9012</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22273,6 +22883,12 @@
           <t>2-s2.0-84911439410</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>4412</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22480,6 +23096,12 @@
           <t>2-s2.0-84911442597</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>2346</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22695,6 +23317,12 @@
           <t>2-s2.0-84911910772</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>7244</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22910,6 +23538,12 @@
           <t>2-s2.0-84914170755</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>4280</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23117,6 +23751,12 @@
           <t>2-s2.0-84914164869</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>4166</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23324,6 +23964,12 @@
           <t>2-s2.0-84910615621</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>4523</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23533,6 +24179,12 @@
           <t>2-s2.0-84911372785</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>3762</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23742,6 +24394,12 @@
           <t>2-s2.0-84916899359</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>5763</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
